--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_H2_Demand_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_H2_Demand_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847F1B1E-B30A-4C4F-9DC1-44F2506167D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4627A8-6617-430D-929F-9713E3A62ECE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="2430" windowWidth="17310" windowHeight="7360" xr2:uid="{52D569E0-42EE-4E09-8C52-BFC9FF3B26DD}"/>
+    <workbookView xWindow="1060" yWindow="1140" windowWidth="17310" windowHeight="8640" xr2:uid="{D80704C5-9908-4587-9183-1E6EFBA5E281}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Commodity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Unit - activity1</t>
   </si>
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>INDHH2</t>
-  </si>
-  <si>
-    <t>TRAGH2</t>
+    <t>PJ</t>
   </si>
   <si>
     <t>AT</t>
@@ -99,10 +96,16 @@
     <t>IT</t>
   </si>
   <si>
+    <t>LT</t>
+  </si>
+  <si>
     <t>LU</t>
   </si>
   <si>
     <t>LV</t>
+  </si>
+  <si>
+    <t>MT</t>
   </si>
   <si>
     <t>NL</t>
@@ -136,9 +139,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,10 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -194,10 +197,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,319 +510,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9661B1D1-7C75-4794-AB58-929E31F9E2CC}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F33E42-724D-4752-AD9D-0FF7440A95A0}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="1">
+        <v>186.75299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>123.28100000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>53.581000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="1">
+        <v>213.28399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>102.161</v>
-      </c>
-      <c r="C4" s="1">
-        <v>91.058000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="1">
+        <v>8.6769999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>3.286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="1">
+        <v>30.002999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>28.733999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="1">
+        <v>1.4829999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="1">
+        <v>167.047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>82.265000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20.190000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="1">
+        <v>1190.569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>662.01700000000005</v>
-      </c>
-      <c r="C9" s="1">
-        <v>303.75099999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="1">
+        <v>168.755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
-        <v>61.691000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="1">
+        <v>19.596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.1910000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="1">
+        <v>14.978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
-        <v>9.9169999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="1">
+        <v>544.81899999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>501.44099999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="1">
+        <v>181.87300000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>62.597000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="1">
+        <v>864.93200000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
-        <v>186.21899999999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>594.38099999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="1">
+        <v>6.8890000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="1">
+        <v>65.989999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
-        <v>25.675000000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>40.314999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="1">
+        <v>13.488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
-        <v>6.9499999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="1">
+        <v>1.2309999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="1">
+        <v>139.363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1">
-        <v>36.349000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="1">
+        <v>11.856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
-        <v>48.298000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="1">
+        <v>57.191000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1">
-        <v>22.016999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="1">
+        <v>26.297000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>114.729</v>
-      </c>
-      <c r="C23" s="1">
-        <v>105.607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>7.8639999999999999</v>
-      </c>
-      <c r="C24" s="1">
-        <v>11.39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="1">
+        <v>274.55600000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
-        <v>132.286</v>
-      </c>
-      <c r="C25" s="1">
-        <v>112.664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="1">
+        <v>33.427000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
-        <v>12.232000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="1">
+        <v>325.07600000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1">
-        <v>53.843000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="1">
+        <v>37.734000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>53.988999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="1">
+        <v>64.760000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>34.427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="1">
+        <v>180.654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1">
-        <v>72.010999999999996</v>
-      </c>
-      <c r="C30" s="1">
-        <v>27.282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="1">
+        <v>41.851999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
-        <v>126.949</v>
-      </c>
-      <c r="C31" s="1">
-        <v>422.02699999999999</v>
+      <c r="B32" s="1">
+        <v>108.83699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>565.64499999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_H2_Demand_2050.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_H2_Demand_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4627A8-6617-430D-929F-9713E3A62ECE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF0057C-BEB0-425A-90AB-94862D443488}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1140" windowWidth="17310" windowHeight="8640" xr2:uid="{D80704C5-9908-4587-9183-1E6EFBA5E281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{38EF7FAD-ABDE-4D1D-A38C-07500D3E4D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Unit - activity1</t>
   </si>
@@ -96,16 +96,10 @@
     <t>IT</t>
   </si>
   <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>LU</t>
   </si>
   <si>
     <t>LV</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>NL</t>
@@ -139,6 +133,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +179,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -510,8 +507,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F33E42-724D-4752-AD9D-0FF7440A95A0}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD042BD-888E-40B0-AA6D-1F380A9E2DE1}">
+  <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,265 +518,249 @@
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>186.75299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>213.28399999999999</v>
+        <v>176.86199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8.6769999999999996</v>
+        <v>193.21899999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>30.002999999999997</v>
+        <v>3.286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.4829999999999999</v>
+        <v>28.733999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>167.047</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1190.569</v>
+        <v>102.455</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>168.755</v>
+        <v>965.76800000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>19.596</v>
+        <v>61.691000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>14.978</v>
+        <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>544.81899999999996</v>
+        <v>10.013</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>181.87300000000002</v>
+        <v>502.87799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>864.93200000000002</v>
+        <v>107.617</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>6.8890000000000002</v>
+        <v>780.59999999999991</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>65.989999999999995</v>
+        <v>6.8890000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13.488</v>
+        <v>65.989999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1.2309999999999999</v>
+        <v>7.1909999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>139.363</v>
+        <v>1.0089999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>11.856</v>
+        <v>36.349000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>57.191000000000003</v>
+        <v>48.298000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>26.297000000000001</v>
+        <v>22.077999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.4</v>
+        <v>220.33600000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>274.55600000000004</v>
+        <v>19.254000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>33.427000000000007</v>
+        <v>244.95</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>325.07600000000002</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>37.734000000000002</v>
+        <v>54.389000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>64.760000000000005</v>
+        <v>54.036999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>180.654</v>
+        <v>34.537999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>41.851999999999997</v>
+        <v>99.292999999999992</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>108.83699999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1">
-        <v>565.64499999999998</v>
+        <v>548.976</v>
       </c>
     </row>
   </sheetData>
